--- a/outputs-r202/o__Peptostreptococcales.xlsx
+++ b/outputs-r202/o__Peptostreptococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,6 +558,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -601,6 +611,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -649,6 +664,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -697,6 +717,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -745,6 +770,11 @@
           <t>f__Acidaminobacteraceae</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>f__Acidaminobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -793,6 +823,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -841,6 +876,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -889,6 +929,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -937,6 +982,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -985,6 +1035,11 @@
           <t>f__Anaerovoracaceae</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1029,6 +1084,11 @@
         <v>0.9999999999136322</v>
       </c>
       <c r="N12" t="inlineStr">
+        <is>
+          <t>f__Anaerovoracaceae</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>f__Anaerovoracaceae</t>
         </is>

--- a/outputs-r202/o__Peptostreptococcales.xlsx
+++ b/outputs-r202/o__Peptostreptococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,44 +514,44 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG067.fasta</t>
+          <t>RUG099.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999996911274265</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.088723736563126e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.220445986960415e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.9999996911274265</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -567,44 +567,44 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG099.fasta</t>
+          <t>RUG114.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999145165523</v>
+        <v>0.9999946321155135</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>8.548324778862158e-08</v>
+        <v>5.367884286666114e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220446032023691e-14</v>
+        <v>2.220444976691421e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999999145165523</v>
+        <v>0.9999946321155135</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -620,44 +620,44 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG114.fasta</t>
+          <t>RUG321.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999783481031137</v>
+        <v>0.9999997333242949</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.165189668637753e-05</v>
+        <v>2.666755052786494e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220443485439462e-14</v>
+        <v>2.220445995494162e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9999783481031137</v>
+        <v>0.9999997333242949</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -673,44 +673,44 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG119.fasta</t>
+          <t>RUG349.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006588069155163741</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.993411928103447</v>
+        <v>0.9999998528320636</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0006588069155163733</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006588069155163727</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006588069155163736</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00065880691551637</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006588069155163726</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006588096569056422</v>
+        <v>1.471677365563003e-07</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006588069155163704</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006588069155163699</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006588069155163733</v>
+        <v>2.220516656142636e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>0.993411928103447</v>
+        <v>0.9999998528320636</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -726,97 +726,97 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG190.fasta</t>
+          <t>RUG576.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9871496428620734</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01285032713619993</v>
+        <v>0.9999987304329558</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>3.000154916651094e-08</v>
+        <v>1.269566844314291e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220009961599357e-14</v>
+        <v>2.220445802195468e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9871496428620734</v>
+        <v>0.9999987304329558</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>f__Acidaminobacteraceae</t>
+          <t>f__Anaerovoracaceae</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>f__Acidaminobacteraceae</t>
+          <t>f__Anaerovoracaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG321.fasta</t>
+          <t>RUG708.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999990484005769</v>
+        <v>0.9999878860440309</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>9.515992232920388e-07</v>
+        <v>1.211395576927757e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>2.220445857166102e-14</v>
+        <v>2.220443604481499e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9999990484005769</v>
+        <v>0.9999878860440309</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -832,44 +832,44 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG349.fasta</t>
+          <t>RUG792.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999998753015413</v>
+        <v>0.9999998127623014</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>1.246982587696262e-07</v>
+        <v>1.872374986945424e-07</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.220497349475235e-14</v>
+        <v>2.220446011487108e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9999998753015413</v>
+        <v>0.9999998127623014</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -877,218 +877,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG576.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9999915686324428</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.431367357333005e-06</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.220444348027995e-14</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9999915686324428</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG708.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.999954547490889</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.545250891130116e-05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.220436875507184e-14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.999954547490889</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG792.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9999997417926255</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.582071747319492e-07</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.220445997129048e-14</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9999997417926255</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>hRUG874.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9999999999136322</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.616788079876345e-11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.220446049232846e-14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9999999999136322</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
         <is>
           <t>f__Anaerovoracaceae</t>
         </is>
